--- a/script/output/gof_model_comparison.xlsx
+++ b/script/output/gof_model_comparison.xlsx
@@ -529,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>193.982892438795</v>
+        <v>171.310317087408</v>
       </c>
       <c r="C2" t="n">
         <v>29</v>
@@ -538,34 +538,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.964374496065308</v>
+        <v>0.960326425167164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.944719045618581</v>
+        <v>0.938437556293876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0357713827741651</v>
+        <v>0.0409456559580829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0564268020196873</v>
+        <v>0.0618908274161036</v>
       </c>
       <c r="I2" t="n">
-        <v>74316.98350747</v>
+        <v>54636.9491645448</v>
       </c>
       <c r="J2" t="n">
-        <v>74547.3748708728</v>
+        <v>54852.2915628657</v>
       </c>
       <c r="K2" t="n">
-        <v>74432.9811236709</v>
+        <v>54737.9062151381</v>
       </c>
       <c r="L2" t="n">
-        <v>-37122.491753735</v>
+        <v>-27282.4745822724</v>
       </c>
       <c r="M2" t="n">
         <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12068264203306</v>
+        <v>2.19562623247365</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>222.576082534978</v>
+        <v>202.254423250709</v>
       </c>
       <c r="C3" t="n">
         <v>35</v>
@@ -582,34 +582,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.959495846098813</v>
+        <v>0.953372453854599</v>
       </c>
       <c r="F3" t="n">
-        <v>0.947923230698474</v>
+        <v>0.940050297813056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0347192215688441</v>
+        <v>0.0404057732785065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0639793455524854</v>
+        <v>0.0698116428452497</v>
       </c>
       <c r="I3" t="n">
-        <v>74375.6658535667</v>
+        <v>54697.1909865993</v>
       </c>
       <c r="J3" t="n">
-        <v>74567.6586564024</v>
+        <v>54876.6429852001</v>
       </c>
       <c r="K3" t="n">
-        <v>74472.3305337341</v>
+        <v>54781.3218620937</v>
       </c>
       <c r="L3" t="n">
-        <v>-37157.8329267833</v>
+        <v>-27318.5954932997</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>1.74082023879806</v>
+        <v>1.81749785107418</v>
       </c>
     </row>
     <row r="4">
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>179.199598586577</v>
+        <v>161.484801894595</v>
       </c>
       <c r="C4" t="n">
         <v>25</v>
@@ -626,34 +626,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.966702981594216</v>
+        <v>0.96195047476295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.940065366869589</v>
+        <v>0.93151085457331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0372466217057228</v>
+        <v>0.0431877701460633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0544456552762197</v>
+        <v>0.0600941343197017</v>
       </c>
       <c r="I4" t="n">
-        <v>74301.6546495874</v>
+        <v>54631.7308845804</v>
       </c>
       <c r="J4" t="n">
-        <v>74557.6450533683</v>
+        <v>54871.0002160481</v>
       </c>
       <c r="K4" t="n">
-        <v>74430.5408898107</v>
+        <v>54743.9053852396</v>
       </c>
       <c r="L4" t="n">
-        <v>-37110.8273247937</v>
+        <v>-27275.8654422902</v>
       </c>
       <c r="M4" t="n">
         <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>2.07245352810177</v>
+        <v>2.13396594433176</v>
       </c>
     </row>
     <row r="5">
@@ -661,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>213.838610340103</v>
+        <v>197.358625358051</v>
       </c>
       <c r="C5" t="n">
         <v>34</v>
@@ -670,34 +670,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.961166633548641</v>
+        <v>0.954458532730617</v>
       </c>
       <c r="F5" t="n">
-        <v>0.94860289734379</v>
+        <v>0.939724528614052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0344919129443352</v>
+        <v>0.0405154078748727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06289837002321</v>
+        <v>0.0688147952086375</v>
       </c>
       <c r="I5" t="n">
-        <v>74362.7621276545</v>
+        <v>54691.5593640728</v>
       </c>
       <c r="J5" t="n">
-        <v>74561.1546905848</v>
+        <v>54876.9930959602</v>
       </c>
       <c r="K5" t="n">
-        <v>74462.6489638276</v>
+        <v>54778.4946020837</v>
       </c>
       <c r="L5" t="n">
-        <v>-37150.3810638273</v>
+        <v>-27314.7796820364</v>
       </c>
       <c r="M5" t="n">
         <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>1.60844980481834</v>
+        <v>1.67572545969905</v>
       </c>
     </row>
     <row r="6">
@@ -705,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>170.051124867446</v>
+        <v>154.379112811968</v>
       </c>
       <c r="C6" t="n">
         <v>25</v>
@@ -714,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.968678453000127</v>
+        <v>0.963931413976129</v>
       </c>
       <c r="F6" t="n">
-        <v>0.943621215400229</v>
+        <v>0.935076545157033</v>
       </c>
       <c r="G6" t="n">
-        <v>0.036124830416579</v>
+        <v>0.0420485204322671</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05414415331505</v>
+        <v>0.0594062281654127</v>
       </c>
       <c r="I6" t="n">
-        <v>74289.7388977406</v>
+        <v>54620.686219987</v>
       </c>
       <c r="J6" t="n">
-        <v>74545.7293015215</v>
+        <v>54859.9555514547</v>
       </c>
       <c r="K6" t="n">
-        <v>74418.6251379639</v>
+        <v>54732.8607206462</v>
       </c>
       <c r="L6" t="n">
-        <v>-37104.8694488703</v>
+        <v>-27270.3431099935</v>
       </c>
       <c r="M6" t="n">
         <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05865409323585</v>
+        <v>2.12847000782112</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>220.389418351609</v>
+        <v>200.898471078159</v>
       </c>
       <c r="C7" t="n">
         <v>34</v>
@@ -758,34 +758,34 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.959752087875817</v>
+        <v>0.953471686963228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.946730704541522</v>
+        <v>0.938418409216038</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0351144959583803</v>
+        <v>0.0409520228976094</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0642147080893949</v>
+        <v>0.0699041302090842</v>
       </c>
       <c r="I7" t="n">
-        <v>74375.8968070181</v>
+        <v>54698.8867699758</v>
       </c>
       <c r="J7" t="n">
-        <v>74574.2893699484</v>
+        <v>54884.3205018633</v>
       </c>
       <c r="K7" t="n">
-        <v>74475.7836431912</v>
+        <v>54785.8220079867</v>
       </c>
       <c r="L7" t="n">
-        <v>-37156.9484035091</v>
+        <v>-27318.4433849879</v>
       </c>
       <c r="M7" t="n">
         <v>31</v>
       </c>
       <c r="N7" t="n">
-        <v>1.60340477726135</v>
+        <v>1.67201867281041</v>
       </c>
     </row>
     <row r="8">
@@ -793,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>149.607560069493</v>
+        <v>144.093734157319</v>
       </c>
       <c r="C8" t="n">
         <v>21</v>
@@ -802,34 +802,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.972229186495887</v>
+        <v>0.965683665292208</v>
       </c>
       <c r="F8" t="n">
-        <v>0.940491113919759</v>
+        <v>0.926464997054731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.037114094815714</v>
+        <v>0.0447504044428009</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0519773002670752</v>
+        <v>0.057035131124354</v>
       </c>
       <c r="I8" t="n">
-        <v>74261.3974574446</v>
+        <v>54612.3923606191</v>
       </c>
       <c r="J8" t="n">
-        <v>74542.9869016037</v>
+        <v>54875.5886252336</v>
       </c>
       <c r="K8" t="n">
-        <v>74403.1723216903</v>
+        <v>54735.7843113442</v>
       </c>
       <c r="L8" t="n">
-        <v>-37086.6987287223</v>
+        <v>-27262.1961803096</v>
       </c>
       <c r="M8" t="n">
         <v>44</v>
       </c>
       <c r="N8" t="n">
-        <v>2.03201155569897</v>
+        <v>2.08865222874611</v>
       </c>
     </row>
     <row r="9">
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>209.340883512513</v>
+        <v>195.394748879223</v>
       </c>
       <c r="C9" t="n">
         <v>33</v>
@@ -846,34 +846,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9619219135599</v>
+        <v>0.954727244278697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.948075336672591</v>
+        <v>0.938264424016405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0346684804906171</v>
+        <v>0.0410031913410451</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0632505552917301</v>
+        <v>0.0689356602691039</v>
       </c>
       <c r="I9" t="n">
-        <v>74358.4833706206</v>
+        <v>54691.6513828619</v>
       </c>
       <c r="J9" t="n">
-        <v>74563.2756936454</v>
+        <v>54883.0668480361</v>
       </c>
       <c r="K9" t="n">
-        <v>74461.5923627993</v>
+        <v>54781.3909833893</v>
       </c>
       <c r="L9" t="n">
-        <v>-37147.2416853103</v>
+        <v>-27313.825691431</v>
       </c>
       <c r="M9" t="n">
         <v>32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.49666140434307</v>
+        <v>1.55839230786786</v>
       </c>
     </row>
   </sheetData>
@@ -939,43 +939,43 @@
         <v>36</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00487864996649523</v>
+        <v>-0.00695397131256537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00320418507989229</v>
+        <v>0.00161274151918012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00105216120532097</v>
+        <v>-0.000539882679576345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00755254353279808</v>
+        <v>0.00792081542914613</v>
       </c>
       <c r="F2" t="n">
-        <v>58.6823460966989</v>
+        <v>60.2418220545078</v>
       </c>
       <c r="G2" t="n">
-        <v>20.2837855295511</v>
+        <v>24.3514223343591</v>
       </c>
       <c r="H2" t="n">
-        <v>39.3494100632088</v>
+        <v>43.4156469556328</v>
       </c>
       <c r="I2" t="n">
         <v>-6</v>
       </c>
       <c r="J2" t="n">
-        <v>-35.3411730483494</v>
+        <v>-36.1209110272539</v>
       </c>
       <c r="K2" t="n">
-        <v>4.01999465820807</v>
+        <v>4.08626813947096</v>
       </c>
       <c r="L2" t="n">
-        <v>17.5826965223396</v>
+        <v>17.6791682750072</v>
       </c>
       <c r="M2" t="n">
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00736423282999921</v>
+        <v>0.00708603963467136</v>
       </c>
     </row>
     <row r="3">
@@ -983,43 +983,43 @@
         <v>37</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00553634804557523</v>
+        <v>-0.00749194203233339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00853753047420036</v>
+        <v>0.00821367404074147</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00275470876138757</v>
+        <v>-0.00267236227119063</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00845271474699028</v>
+        <v>0.00872066088893584</v>
       </c>
       <c r="F3" t="n">
-        <v>61.107478067177</v>
+        <v>59.8284794923384</v>
       </c>
       <c r="G3" t="n">
-        <v>3.50963721646986</v>
+        <v>5.99287991211168</v>
       </c>
       <c r="H3" t="n">
-        <v>32.1080740169418</v>
+        <v>34.5892168440259</v>
       </c>
       <c r="I3" t="n">
         <v>-9</v>
       </c>
       <c r="J3" t="n">
-        <v>-39.5537390335885</v>
+        <v>-38.9142397461692</v>
       </c>
       <c r="K3" t="n">
-        <v>3.67068857496693</v>
+        <v>3.71234983584441</v>
       </c>
       <c r="L3" t="n">
-        <v>21.5511276567203</v>
+        <v>20.9647481874874</v>
       </c>
       <c r="M3" t="n">
         <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0104158065971649</v>
+        <v>0.0128078671512149</v>
       </c>
     </row>
     <row r="4">
@@ -1027,43 +1027,43 @@
         <v>38</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00892636512431044</v>
+        <v>-0.0104597270129011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00310948914129328</v>
+        <v>0.00334186405900461</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00101033445819864</v>
+        <v>-0.00109649753465768</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0100705547743449</v>
+        <v>0.0104979020436715</v>
       </c>
       <c r="F4" t="n">
-        <v>86.1579092775646</v>
+        <v>78.200549988811</v>
       </c>
       <c r="G4" t="n">
-        <v>28.5600684268575</v>
+        <v>24.3649504085843</v>
       </c>
       <c r="H4" t="n">
-        <v>57.1585052273294</v>
+        <v>52.9612873404985</v>
       </c>
       <c r="I4" t="n">
         <v>-9</v>
       </c>
       <c r="J4" t="n">
-        <v>-52.0789546387823</v>
+        <v>-48.1002749944055</v>
       </c>
       <c r="K4" t="n">
-        <v>3.62673507048134</v>
+        <v>3.70069127285802</v>
       </c>
       <c r="L4" t="n">
-        <v>28.7194700614679</v>
+        <v>25.9952919321789</v>
       </c>
       <c r="M4" t="n">
         <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000722533168747004</v>
+        <v>0.00204661638879487</v>
       </c>
     </row>
     <row r="5">
@@ -1071,43 +1071,43 @@
         <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.010307272935987</v>
+        <v>-0.0109564210135104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00758422275283266</v>
+        <v>0.0117994269616747</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00244561432509689</v>
+        <v>-0.00374721310175582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0112732550246549</v>
+        <v>0.0119005291447499</v>
       </c>
       <c r="F5" t="n">
-        <v>97.0859131759789</v>
+        <v>79.2590222428043</v>
       </c>
       <c r="G5" t="n">
-        <v>20.2887920416833</v>
+        <v>7.47822280249966</v>
       </c>
       <c r="H5" t="n">
-        <v>58.4200411089842</v>
+        <v>45.6066720450472</v>
       </c>
       <c r="I5" t="n">
         <v>-12</v>
       </c>
       <c r="J5" t="n">
-        <v>-60.5429565879895</v>
+        <v>-51.6295111214022</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4596119593147</v>
+        <v>3.50267868442144</v>
       </c>
       <c r="L5" t="n">
-        <v>34.999853914242</v>
+        <v>29.4800155955099</v>
       </c>
       <c r="M5" t="n">
         <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000468334047323128</v>
+        <v>0.0033418246055047</v>
       </c>
     </row>
   </sheetData>
@@ -1173,37 +1173,37 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00167078744982818</v>
+        <v>-0.00108607887601753</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.000679666645315935</v>
+        <v>0.000325769199004511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000227308624508961</v>
+        <v>-0.000109634596366183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00108097552927539</v>
+        <v>0.000996847636612175</v>
       </c>
       <c r="F2" t="n">
-        <v>12.9037259121105</v>
+        <v>5.63162252656184</v>
       </c>
       <c r="G2" t="n">
-        <v>6.50396581758105</v>
+        <v>-0.350110760125972</v>
       </c>
       <c r="H2" t="n">
-        <v>9.6815699065337</v>
+        <v>2.82726001008268</v>
       </c>
       <c r="I2" t="n">
         <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.45186295605527</v>
+        <v>-3.81581126328092</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.3626632145734</v>
+        <v>-2.57744628155494</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.30801961963147</v>
+        <v>-2.960923989445</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -1217,37 +1217,37 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.000256241777003896</v>
+        <v>-0.0000992331086292486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00119252615695142</v>
+        <v>0.00163188859701846</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000395274389536203</v>
+        <v>-0.000546249619102906</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.000235362536909478</v>
+        <v>-0.0000924873638344786</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.230953451478854</v>
+        <v>-1.69578337646089</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.63071354600834</v>
+        <v>-7.67751666314871</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.45310945705569</v>
+        <v>-4.50014589294005</v>
       </c>
       <c r="I3" t="n">
         <v>-1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.884523274260573</v>
+        <v>-0.152108311769553</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.51905906884021</v>
+        <v>-2.69235667510294</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.702264814034563</v>
+        <v>-0.112992690141054</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -1261,37 +1261,37 @@
         <v>42</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00242606746108753</v>
+        <v>-0.00135479042409814</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.000152105974117744</v>
+        <v>0.00178587379665074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000507410782270082</v>
+        <v>-0.000597418062538553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000728790260755272</v>
+        <v>0.000875982576145823</v>
       </c>
       <c r="F4" t="n">
-        <v>17.1824829460238</v>
+        <v>5.53960373741575</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3829627569794</v>
+        <v>-6.42386283596716</v>
       </c>
       <c r="H4" t="n">
-        <v>10.7381709348701</v>
+        <v>-0.0691212955425726</v>
       </c>
       <c r="I4" t="n">
         <v>-2</v>
       </c>
       <c r="J4" t="n">
-        <v>-10.5912414730119</v>
+        <v>-4.76980186870787</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.16572111248185</v>
+        <v>-2.32819084022702</v>
       </c>
       <c r="L4" t="n">
-        <v>-9.78079902529526</v>
+        <v>-4.09743203718024</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -1305,37 +1305,37 @@
         <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.000755280011259352</v>
+        <v>-0.000268711548080613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000527560671198191</v>
+        <v>0.00146010459764623</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.000176567546281953</v>
+        <v>-0.00048778346617237</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.000352185268520114</v>
+        <v>-0.000120865060466352</v>
       </c>
       <c r="F5" t="n">
-        <v>4.27875703391328</v>
+        <v>-0.0920187891460955</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.12100306060165</v>
+        <v>-6.07375207584118</v>
       </c>
       <c r="H5" t="n">
-        <v>1.05660102833644</v>
+        <v>-2.89638130562525</v>
       </c>
       <c r="I5" t="n">
         <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.13937851695664</v>
+        <v>-0.953990605426952</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.9687790103903</v>
+        <v>-2.07893539889909</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.18916292828038</v>
+        <v>-0.917768398125446</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1349,37 +1349,37 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00216982568408364</v>
+        <v>-0.00125555731546889</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00134463213106917</v>
+        <v>0.000153985199632278</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000446015467763211</v>
+        <v>-0.0000511684434356466</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00096415279766475</v>
+        <v>0.000968469939980302</v>
       </c>
       <c r="F6" t="n">
-        <v>17.4134363975027</v>
+        <v>7.23538711387664</v>
       </c>
       <c r="G6" t="n">
-        <v>11.0136763029877</v>
+        <v>1.25365382718155</v>
       </c>
       <c r="H6" t="n">
-        <v>14.1912803919258</v>
+        <v>4.43102459739748</v>
       </c>
       <c r="I6" t="n">
         <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.70671819875133</v>
+        <v>-4.61769355693832</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.81238315612349</v>
+        <v>-1.96402500535109</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.7115519871781</v>
+        <v>-4.70227572903315</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
